--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2318301_cognizant_com/Documents/Book_Shelf_Project/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2320232\eclipse-workspace\Book_self_Project-master (1) 1\Book_self_Project-master\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="14_{E4A73922-1A3C-4AAC-96C9-9CDD2E64DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{504435BA-87BF-448B-A611-D8208582860C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BA5FC4-1ADA-4C67-AC8D-9CC060F04B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UrbanLadder" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>Pincode</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>ram@gmail.com</t>
-  </si>
-  <si>
-    <t>Raju</t>
-  </si>
-  <si>
-    <t>rajugmail.com</t>
   </si>
   <si>
     <t>Chennai</t>
@@ -96,9 +84,6 @@
 Mobile</t>
   </si>
   <si>
-    <t>Aarav</t>
-  </si>
-  <si>
     <t>Dhruv</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>Yash </t>
   </si>
   <si>
-    <t>aarav@gmail.com</t>
-  </si>
-  <si>
     <t>arjun@gmail.com</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>Neha</t>
   </si>
   <si>
-    <t>Aanya </t>
-  </si>
-  <si>
     <t>Aditi </t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>Priya </t>
   </si>
   <si>
-    <t>Aanya@gmail.com</t>
-  </si>
-  <si>
     <t>advika@gmail.com</t>
   </si>
   <si>
@@ -232,6 +208,30 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>alex@gmail.com</t>
+  </si>
+  <si>
+    <t>Madhan</t>
+  </si>
+  <si>
+    <t>madhan@gmail.com</t>
+  </si>
+  <si>
+    <t>jeremy@gmail.com</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>harigmail.com</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,10 +393,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -409,115 +405,35 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -808,52 +724,52 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="5" max="5" customWidth="true" width="10.36328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.6328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" customWidth="true" width="14.36328125"/>
-    <col min="12" max="12" customWidth="true" width="18.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.453125"/>
-    <col min="15" max="15" customWidth="true" width="9.453125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="5" max="5" customWidth="true" width="10.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.21875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.6640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="11" max="11" customWidth="true" width="14.33203125"/>
+    <col min="12" max="12" customWidth="true" width="18.44140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="8.44140625"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
@@ -868,413 +784,413 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="8">
         <v>9876543200</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="G2" s="8">
         <v>9876543210</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2" s="7">
         <v>600001</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s" s="131">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s" s="45">
+        <v>54</v>
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="8">
         <v>9876543201</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="8">
         <v>9876543211</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I3" s="7">
         <v>600002</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s" s="132">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s" s="46">
+        <v>53</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="8">
         <v>9876543202</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G4" s="8">
         <v>9876543212</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
         <v>600003</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="8">
         <v>9876543203</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="G5" s="8">
         <v>9876543213</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
         <v>600004</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5000</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="8">
         <v>9876543204</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="8">
         <v>9876543214</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
         <v>600005</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6000</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="8">
         <v>9876543205</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="8">
         <v>9876543215</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
         <v>600006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7000</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="8">
         <v>9876543206</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="8">
         <v>9876543216</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
         <v>600007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8000</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="8">
         <v>9876543207</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="8">
         <v>9876543217</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
         <v>600008</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9000</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="8">
         <v>9876543208</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="8">
         <v>9876543218</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
         <v>600009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="8">
         <v>9876543209</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="8">
         <v>9876543219</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
         <v>600010</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11000</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="8">
         <v>9876543210</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="G12" s="8">
         <v>9876543220</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
         <v>600011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="L12" s="7"/>
     </row>
